--- a/data/trans_orig/IP07A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{366EBE10-CFC7-4F2A-965D-C23573F73F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE550CD-C351-4EB4-B68A-D385F24627F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0AECE98-CD81-4453-876B-48FD38A811FB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E7569981-7D8F-46CD-A315-EE236A364F71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="803">
   <si>
     <t>Menores según frecuencia de sentirse bien y en forma en 2007 (Tasa respuesta: 47,34%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -77,28 +77,28 @@
     <t>56,49%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
   </si>
   <si>
     <t>46,39%</t>
   </si>
   <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -107,28 +107,28 @@
     <t>43,51%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>41,36%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
   </si>
   <si>
     <t>42,39%</t>
   </si>
   <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -146,2281 +146,2308 @@
     <t>21,53%</t>
   </si>
   <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2016 (Tasa respuesta: 47,32%)</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
   </si>
   <si>
     <t>41,78%</t>
   </si>
   <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2012 (Tasa respuesta: 44,83%)</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2015 (Tasa respuesta: 47,32%)</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
   </si>
   <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse bien y en forma en 2023 (Tasa respuesta: 50,31%)</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>0,17%</t>
   </si>
 </sst>
 </file>
@@ -2832,7 +2859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573167F3-34B4-43F2-9799-43F50C852C3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A430EB40-6449-4B51-9105-58DB2758BEA9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3381,13 +3408,13 @@
         <v>2808</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -3396,13 +3423,13 @@
         <v>6718</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3444,13 @@
         <v>1354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3438,7 +3465,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3447,13 +3474,13 @@
         <v>1354</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,7 +3501,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3489,7 +3516,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3504,7 +3531,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3572,13 +3599,13 @@
         <v>55862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3587,13 +3614,13 @@
         <v>56960</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>173</v>
@@ -3602,13 +3629,13 @@
         <v>112823</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3650,13 @@
         <v>36798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>66</v>
@@ -3638,13 +3665,13 @@
         <v>41121</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>122</v>
@@ -3653,13 +3680,13 @@
         <v>77919</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3701,13 @@
         <v>3276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -3689,13 +3716,13 @@
         <v>4137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3704,13 +3731,13 @@
         <v>7414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3752,13 @@
         <v>2038</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3740,13 +3767,13 @@
         <v>2428</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -3755,13 +3782,13 @@
         <v>4466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3803,13 @@
         <v>1260</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3797,7 +3824,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3806,13 +3833,13 @@
         <v>1260</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3895,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3880,13 +3907,13 @@
         <v>29924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -3895,13 +3922,13 @@
         <v>32024</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>99</v>
@@ -3910,13 +3937,13 @@
         <v>61947</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,13 +3958,13 @@
         <v>33309</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>40</v>
@@ -3946,13 +3973,13 @@
         <v>23878</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>92</v>
@@ -3961,13 +3988,13 @@
         <v>57186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +4009,13 @@
         <v>2579</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3997,13 +4024,13 @@
         <v>1781</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -4012,13 +4039,13 @@
         <v>4360</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4060,13 @@
         <v>483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4048,13 +4075,13 @@
         <v>3375</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4063,13 +4090,13 @@
         <v>3858</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,7 +4117,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4105,7 +4132,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4120,7 +4147,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,7 +4203,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4188,13 +4215,13 @@
         <v>51272</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4203,13 +4230,13 @@
         <v>41031</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>128</v>
@@ -4218,13 +4245,13 @@
         <v>92302</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4266,13 @@
         <v>40629</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -4254,13 +4281,13 @@
         <v>42120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>113</v>
@@ -4269,13 +4296,13 @@
         <v>82749</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4317,13 @@
         <v>5419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>113</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4305,13 +4332,13 @@
         <v>7982</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>19</v>
@@ -4320,13 +4347,13 @@
         <v>13401</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4368,13 @@
         <v>1922</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -4362,7 +4389,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -4371,13 +4398,13 @@
         <v>1922</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,7 +4425,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4407,13 +4434,13 @@
         <v>793</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4422,13 +4449,13 @@
         <v>793</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4523,13 @@
         <v>176676</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>239</v>
@@ -4511,13 +4538,13 @@
         <v>161388</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="M34" s="7">
         <v>506</v>
@@ -4526,13 +4553,13 @@
         <v>338063</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4574,13 @@
         <v>146669</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H35" s="7">
         <v>199</v>
@@ -4562,13 +4589,13 @@
         <v>133716</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>417</v>
@@ -4577,13 +4604,13 @@
         <v>280385</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4625,13 @@
         <v>15185</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -4613,13 +4640,13 @@
         <v>19946</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -4628,13 +4655,13 @@
         <v>35131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4676,13 @@
         <v>5798</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H37" s="7">
         <v>9</v>
@@ -4664,10 +4691,10 @@
         <v>5802</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>231</v>
@@ -4679,13 +4706,13 @@
         <v>11600</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4727,13 @@
         <v>1260</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -4715,13 +4742,13 @@
         <v>793</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -4730,13 +4757,13 @@
         <v>2053</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,7 +4819,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4813,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2C071A-B47F-4EDA-8A57-65325325E64F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513DFB6A-5023-4A62-A0EC-62C1C8A241F3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4830,7 +4857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4937,13 +4964,13 @@
         <v>2713</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4952,13 +4979,13 @@
         <v>2465</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4967,13 +4994,13 @@
         <v>5178</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5015,13 @@
         <v>10621</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -5003,13 +5030,13 @@
         <v>8719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -5018,13 +5045,13 @@
         <v>19340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5066,13 @@
         <v>1155</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5060,7 +5087,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -5069,13 +5096,13 @@
         <v>1155</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,7 +5123,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5105,13 +5132,13 @@
         <v>760</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -5120,13 +5147,13 @@
         <v>760</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>268</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5174,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5162,7 +5189,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5245,13 +5272,13 @@
         <v>25675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -5260,7 +5287,7 @@
         <v>20983</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>273</v>
@@ -5302,7 +5329,7 @@
         <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -5311,13 +5338,13 @@
         <v>27433</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -5326,13 +5353,13 @@
         <v>53831</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,7 +5374,7 @@
         <v>4149</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>287</v>
@@ -5541,7 +5568,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5637,10 +5664,10 @@
         <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5682,13 @@
         <v>2605</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -5670,13 +5697,13 @@
         <v>5351</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5685,13 +5712,13 @@
         <v>7955</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5733,13 @@
         <v>1978</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5721,13 +5748,13 @@
         <v>695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5739,10 +5766,10 @@
         <v>296</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5790,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5778,7 +5805,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5793,7 +5820,7 @@
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,7 +5876,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5861,13 +5888,13 @@
         <v>34422</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -5876,13 +5903,13 @@
         <v>21399</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
         <v>86</v>
@@ -5891,13 +5918,13 @@
         <v>55822</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5939,13 @@
         <v>28411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="H23" s="7">
         <v>63</v>
@@ -5927,13 +5954,13 @@
         <v>40853</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M23" s="7">
         <v>108</v>
@@ -5942,13 +5969,13 @@
         <v>69264</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5990,13 @@
         <v>3518</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5978,13 +6005,13 @@
         <v>2937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>185</v>
+        <v>358</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -5993,13 +6020,13 @@
         <v>6455</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>222</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6041,13 @@
         <v>2566</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>360</v>
+        <v>77</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6029,13 +6056,13 @@
         <v>1335</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -6044,13 +6071,13 @@
         <v>3900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6092,13 @@
         <v>607</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>112</v>
+        <v>369</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6086,7 +6113,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -6095,13 +6122,13 @@
         <v>607</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6157,7 +6184,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6169,13 +6196,13 @@
         <v>31811</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -6184,13 +6211,13 @@
         <v>29066</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M28" s="7">
         <v>82</v>
@@ -6199,13 +6226,13 @@
         <v>60876</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6247,13 @@
         <v>51864</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6235,13 +6262,13 @@
         <v>54986</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M29" s="7">
         <v>141</v>
@@ -6250,13 +6277,13 @@
         <v>106849</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6298,13 @@
         <v>7243</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -6286,13 +6313,13 @@
         <v>6457</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>146</v>
+        <v>392</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -6301,13 +6328,13 @@
         <v>13701</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6349,13 @@
         <v>2212</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -6337,13 +6364,13 @@
         <v>818</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>397</v>
+        <v>239</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -6352,13 +6379,13 @@
         <v>3031</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>400</v>
+        <v>109</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>150</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,7 +6406,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6394,7 +6421,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6409,7 +6436,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6504,13 @@
         <v>133898</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H34" s="7">
         <v>161</v>
@@ -6492,7 +6519,7 @@
         <v>111483</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>407</v>
+        <v>276</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>408</v>
@@ -6630,13 +6657,13 @@
         <v>6756</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>329</v>
+        <v>65</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>191</v>
+        <v>431</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -6645,13 +6672,13 @@
         <v>4343</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -6660,13 +6687,13 @@
         <v>11099</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>102</v>
+        <v>436</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6708,13 @@
         <v>2559</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -6702,7 +6729,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -6711,13 +6738,13 @@
         <v>2559</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>439</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,7 +6800,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6794,7 +6821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B161F1A7-FA53-4C13-8ECE-C7902B7EAE09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51BD4D9-3BA0-41EC-AF36-02CECFBC2421}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6811,7 +6838,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6918,13 +6945,13 @@
         <v>8696</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -6933,13 +6960,13 @@
         <v>5993</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -6948,13 +6975,13 @@
         <v>14689</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,13 +6996,13 @@
         <v>4572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6984,13 +7011,13 @@
         <v>6903</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6999,13 +7026,13 @@
         <v>11475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7020,13 +7047,13 @@
         <v>1046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7041,7 +7068,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7050,13 +7077,13 @@
         <v>1046</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,7 +7104,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -7092,7 +7119,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -7107,7 +7134,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,7 +7155,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7137,13 +7164,13 @@
         <v>1030</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7152,13 +7179,13 @@
         <v>1030</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7226,13 +7253,13 @@
         <v>31854</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -7241,13 +7268,13 @@
         <v>31928</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>87</v>
@@ -7256,13 +7283,13 @@
         <v>63782</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7277,13 +7304,13 @@
         <v>25607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H11" s="7">
         <v>30</v>
@@ -7292,13 +7319,13 @@
         <v>20305</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>17</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -7307,13 +7334,13 @@
         <v>45912</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,7 +7361,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -7343,13 +7370,13 @@
         <v>3286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -7358,13 +7385,13 @@
         <v>3286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>496</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7406,13 @@
         <v>1852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>493</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7394,13 +7421,13 @@
         <v>1397</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -7409,13 +7436,13 @@
         <v>3249</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,7 +7463,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7451,7 +7478,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -7466,7 +7493,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,7 +7549,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7534,13 +7561,13 @@
         <v>66600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H16" s="7">
         <v>92</v>
@@ -7549,13 +7576,13 @@
         <v>61734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -7564,13 +7591,13 @@
         <v>128334</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7612,13 @@
         <v>34191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>63</v>
@@ -7600,13 +7627,13 @@
         <v>40011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>114</v>
@@ -7615,13 +7642,13 @@
         <v>74202</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7663,13 @@
         <v>4806</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>520</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -7651,13 +7678,13 @@
         <v>2159</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>527</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -7666,13 +7693,13 @@
         <v>6965</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7714,13 @@
         <v>1361</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>532</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -7702,13 +7729,13 @@
         <v>1492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -7717,13 +7744,13 @@
         <v>2853</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7765,13 @@
         <v>690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7753,13 +7780,13 @@
         <v>1234</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -7768,13 +7795,13 @@
         <v>1924</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,7 +7857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7842,13 +7869,13 @@
         <v>49514</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
         <v>61</v>
@@ -7857,13 +7884,13 @@
         <v>39755</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>537</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="M22" s="7">
         <v>131</v>
@@ -7872,13 +7899,13 @@
         <v>89270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>547</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7920,13 @@
         <v>24553</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H23" s="7">
         <v>47</v>
@@ -7908,13 +7935,13 @@
         <v>30159</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>546</v>
+        <v>308</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
@@ -7923,13 +7950,13 @@
         <v>54711</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7971,13 @@
         <v>2984</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>551</v>
+        <v>389</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -7959,13 +7986,13 @@
         <v>1181</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7974,13 +8001,13 @@
         <v>4166</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>557</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8022,13 @@
         <v>891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8010,13 +8037,13 @@
         <v>615</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -8025,13 +8052,13 @@
         <v>1506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,7 +8079,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -8067,7 +8094,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -8082,7 +8109,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,7 +8165,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8150,13 +8177,13 @@
         <v>55029</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H28" s="7">
         <v>57</v>
@@ -8165,13 +8192,13 @@
         <v>43145</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -8180,13 +8207,13 @@
         <v>98174</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>567</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8228,13 @@
         <v>38410</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -8216,13 +8243,13 @@
         <v>51812</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>574</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>120</v>
@@ -8231,13 +8258,13 @@
         <v>90221</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8279,13 @@
         <v>6950</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -8267,13 +8294,13 @@
         <v>9696</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -8282,13 +8309,13 @@
         <v>16646</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8330,13 @@
         <v>1753</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -8318,13 +8345,13 @@
         <v>2148</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>365</v>
+        <v>596</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -8333,13 +8360,13 @@
         <v>3901</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8360,7 +8387,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -8369,13 +8396,13 @@
         <v>792</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>468</v>
+        <v>432</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8384,13 +8411,13 @@
         <v>792</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>595</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8458,13 +8485,13 @@
         <v>211694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="H34" s="7">
         <v>262</v>
@@ -8473,13 +8500,13 @@
         <v>182554</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="M34" s="7">
         <v>552</v>
@@ -8488,13 +8515,13 @@
         <v>394248</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8509,13 +8536,13 @@
         <v>127333</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>467</v>
+        <v>611</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>313</v>
+        <v>612</v>
       </c>
       <c r="H35" s="7">
         <v>214</v>
@@ -8524,13 +8551,13 @@
         <v>149189</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M35" s="7">
         <v>390</v>
@@ -8539,13 +8566,13 @@
         <v>276522</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>24</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8587,13 @@
         <v>15786</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
@@ -8575,13 +8602,13 @@
         <v>16322</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="M36" s="7">
         <v>44</v>
@@ -8590,13 +8617,13 @@
         <v>32108</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>613</v>
+        <v>399</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8611,13 +8638,13 @@
         <v>5858</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>108</v>
+        <v>298</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>98</v>
+        <v>625</v>
       </c>
       <c r="H37" s="7">
         <v>8</v>
@@ -8626,13 +8653,13 @@
         <v>5651</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M37" s="7">
         <v>15</v>
@@ -8641,13 +8668,13 @@
         <v>11508</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>619</v>
+        <v>142</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8662,13 +8689,13 @@
         <v>690</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>622</v>
+        <v>232</v>
       </c>
       <c r="H38" s="7">
         <v>4</v>
@@ -8677,13 +8704,13 @@
         <v>3056</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>533</v>
+        <v>630</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -8692,13 +8719,13 @@
         <v>3746</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8754,7 +8781,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D686C98D-9D81-4462-9C04-389782F87667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC16E08-FFD4-4A5E-A86C-3DE0A68307F7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8792,7 +8819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8899,13 +8926,13 @@
         <v>4414</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -8914,13 +8941,13 @@
         <v>3360</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -8929,13 +8956,13 @@
         <v>7773</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>81</v>
+        <v>640</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8950,13 +8977,13 @@
         <v>1505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -8965,13 +8992,13 @@
         <v>6408</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -8980,13 +9007,13 @@
         <v>7913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9001,13 +9028,13 @@
         <v>636</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9022,7 +9049,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -9031,13 +9058,13 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9058,7 +9085,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9073,7 +9100,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -9088,7 +9115,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,7 +9136,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9124,7 +9151,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -9139,7 +9166,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,13 +9234,13 @@
         <v>39621</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -9222,13 +9249,13 @@
         <v>31799</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -9237,13 +9264,13 @@
         <v>71420</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9258,13 +9285,13 @@
         <v>18703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -9273,13 +9300,13 @@
         <v>18124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -9288,13 +9315,13 @@
         <v>36827</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,13 +9336,13 @@
         <v>8454</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -9324,13 +9351,13 @@
         <v>1585</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>368</v>
+        <v>676</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -9339,13 +9366,13 @@
         <v>10039</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,13 +9387,13 @@
         <v>2500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -9375,13 +9402,13 @@
         <v>705</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>238</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>675</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -9390,13 +9417,13 @@
         <v>3205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>676</v>
+        <v>435</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>677</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,7 +9444,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -9432,7 +9459,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>679</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -9447,7 +9474,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9503,7 +9530,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9515,13 +9542,13 @@
         <v>99582</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="H16" s="7">
         <v>87</v>
@@ -9530,13 +9557,13 @@
         <v>65519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>686</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>204</v>
@@ -9545,13 +9572,13 @@
         <v>165101</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9566,13 +9593,13 @@
         <v>38105</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -9581,13 +9608,13 @@
         <v>34388</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>698</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="M17" s="7">
         <v>92</v>
@@ -9596,13 +9623,13 @@
         <v>72493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>697</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,13 +9644,13 @@
         <v>6999</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -9632,13 +9659,13 @@
         <v>1168</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -9647,13 +9674,13 @@
         <v>8167</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>190</v>
+        <v>707</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>677</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,13 +9695,13 @@
         <v>2298</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>437</v>
+        <v>600</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -9683,13 +9710,13 @@
         <v>1164</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -9698,13 +9725,13 @@
         <v>3461</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9719,13 +9746,13 @@
         <v>944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>579</v>
+        <v>712</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -9740,7 +9767,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>533</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -9749,13 +9776,13 @@
         <v>944</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,7 +9838,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9823,13 +9850,13 @@
         <v>71415</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>29</v>
+        <v>714</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -9838,13 +9865,13 @@
         <v>68140</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -9853,13 +9880,13 @@
         <v>139555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>713</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9874,13 +9901,13 @@
         <v>26894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -9889,13 +9916,13 @@
         <v>26607</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="M23" s="7">
         <v>68</v>
@@ -9904,13 +9931,13 @@
         <v>53502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,13 +9952,13 @@
         <v>2377</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -9940,13 +9967,13 @@
         <v>1429</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -9955,13 +9982,13 @@
         <v>3806</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>616</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>221</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,13 +10003,13 @@
         <v>1300</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>727</v>
+        <v>493</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -9991,13 +10018,13 @@
         <v>759</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -10006,13 +10033,13 @@
         <v>2060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>621</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10033,7 +10060,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>736</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -10042,13 +10069,13 @@
         <v>1541</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>731</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -10057,13 +10084,13 @@
         <v>1541</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>70</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10119,7 +10146,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10131,13 +10158,13 @@
         <v>50282</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>732</v>
+        <v>167</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -10146,13 +10173,13 @@
         <v>53140</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="M28" s="7">
         <v>130</v>
@@ -10161,13 +10188,13 @@
         <v>103422</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10209,13 @@
         <v>36107</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -10197,13 +10224,13 @@
         <v>37574</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>745</v>
+        <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="M29" s="7">
         <v>99</v>
@@ -10212,13 +10239,13 @@
         <v>73681</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>308</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10260,13 @@
         <v>5873</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -10248,13 +10275,13 @@
         <v>4169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>753</v>
+        <v>494</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -10263,13 +10290,13 @@
         <v>10042</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>755</v>
+        <v>590</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10290,7 +10317,7 @@
         <v>32</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -10299,13 +10326,13 @@
         <v>3484</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -10314,13 +10341,13 @@
         <v>3484</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>762</v>
+        <v>112</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10335,13 +10362,13 @@
         <v>725</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -10350,13 +10377,13 @@
         <v>823</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>767</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -10365,13 +10392,13 @@
         <v>1548</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>682</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>766</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10439,13 +10466,13 @@
         <v>265314</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>596</v>
+        <v>770</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="H34" s="7">
         <v>281</v>
@@ -10454,13 +10481,13 @@
         <v>221958</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="M34" s="7">
         <v>583</v>
@@ -10469,13 +10496,13 @@
         <v>487272</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>737</v>
+        <v>775</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10490,13 +10517,13 @@
         <v>121314</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="H35" s="7">
         <v>174</v>
@@ -10505,13 +10532,13 @@
         <v>123101</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="M35" s="7">
         <v>324</v>
@@ -10520,13 +10547,13 @@
         <v>244415</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>343</v>
+        <v>786</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10541,13 +10568,13 @@
         <v>24339</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>101</v>
+        <v>788</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="H36" s="7">
         <v>12</v>
@@ -10556,13 +10583,13 @@
         <v>8350</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>116</v>
+        <v>562</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -10571,13 +10598,13 @@
         <v>32689</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>115</v>
+        <v>792</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>786</v>
+        <v>71</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10592,13 +10619,13 @@
         <v>6098</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>193</v>
+        <v>795</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -10607,13 +10634,13 @@
         <v>6111</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>356</v>
+        <v>796</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>789</v>
+        <v>599</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>146</v>
+        <v>797</v>
       </c>
       <c r="M37" s="7">
         <v>16</v>
@@ -10622,13 +10649,13 @@
         <v>12209</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>397</v>
+        <v>798</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>790</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10643,13 +10670,13 @@
         <v>1669</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>753</v>
+        <v>535</v>
       </c>
       <c r="H38" s="7">
         <v>3</v>
@@ -10658,13 +10685,13 @@
         <v>2364</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>187</v>
+        <v>801</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -10673,13 +10700,13 @@
         <v>4033</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10735,7 +10762,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
